--- a/@ExcelTest/army/ArmySetting.xlsx
+++ b/@ExcelTest/army/ArmySetting.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zts/Documents/workspace/clongame_kingdom/src/main/resources/number/army/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cc/github/TableConvert/@ExcelTest/army/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E80A9E-A527-0049-BFB6-8EC7DD9848DA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2200" windowWidth="20980" windowHeight="11680"/>
+    <workbookView xWindow="9140" yWindow="1960" windowWidth="28500" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>唯一标识</t>
   </si>
@@ -141,12 +142,24 @@
   <si>
     <t>[{"type":"CURRENCY","code":1,"amount":100}]</t>
   </si>
+  <si>
+    <t>TEST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Ref": ["ArmySettingNoTest"]}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"type":"CURRENCY","code":1,"amount":100}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +202,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -197,6 +211,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -227,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,6 +260,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -545,14 +568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="5" width="23.6640625" customWidth="1"/>
@@ -562,7 +585,7 @@
     <col min="10" max="10" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -591,7 +614,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,14 +643,16 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>25</v>
@@ -645,7 +670,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -672,39 +697,30 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>110001</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
@@ -713,48 +729,49 @@
         <v>28</v>
       </c>
       <c r="F6" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2">
         <v>0.4</v>
       </c>
-      <c r="H6" s="6">
-        <v>110005</v>
+      <c r="H6" s="2">
+        <v>110001</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15">
       <c r="B7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2">
         <v>0.4</v>
       </c>
       <c r="H7" s="6">
-        <v>110009</v>
+        <v>110005</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15">
       <c r="B8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
@@ -763,26 +780,23 @@
         <v>28</v>
       </c>
       <c r="F8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2">
         <v>0.4</v>
       </c>
       <c r="H8" s="6">
-        <v>110013</v>
+        <v>110009</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" spans="1:11" ht="15">
       <c r="B9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -791,35 +805,55 @@
         <v>28</v>
       </c>
       <c r="F9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2">
         <v>0.4</v>
       </c>
       <c r="H9" s="6">
-        <v>110003</v>
+        <v>110013</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="2"/>
+    <row r="10" spans="1:11" ht="15">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="6">
+        <v>110003</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -827,7 +861,7 @@
       <c r="G12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -835,7 +869,7 @@
       <c r="G13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -843,25 +877,25 @@
       <c r="G14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -869,7 +903,7 @@
       <c r="G17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -877,7 +911,7 @@
       <c r="G18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -885,25 +919,25 @@
       <c r="G19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="2"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -911,7 +945,7 @@
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -919,7 +953,7 @@
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -927,78 +961,86 @@
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:10">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/@ExcelTest/army/ArmySetting.xlsx
+++ b/@ExcelTest/army/ArmySetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cc/github/TableConvert/@ExcelTest/army/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E80A9E-A527-0049-BFB6-8EC7DD9848DA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10366EF1-499A-1D4D-B9E9-DD673921F824}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="1960" windowWidth="28500" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="2060" windowWidth="28500" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -672,26 +672,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -699,16 +689,26 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
